--- a/data/2021_scores.xlsx
+++ b/data/2021_scores.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="82">
   <si>
     <t>RANK</t>
   </si>
@@ -319,6 +319,14 @@
   </si>
   <si>
     <t>RD 22
+MARGIN</t>
+  </si>
+  <si>
+    <t>RD 23
+TIPS</t>
+  </si>
+  <si>
+    <t>RD 23
 MARGIN</t>
   </si>
 </sst>
@@ -12537,8 +12545,778 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>133.0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>633.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>132.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>709.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>132.0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>130.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>629.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>130.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>669.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>130.0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>732.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>129.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>645.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>129.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>718.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>128.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>663.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>668.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>127.0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>609.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>127.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>693.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>127.0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>78.0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>951.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>126.0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>626.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>125.0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>608.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>125.0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>628.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>125.0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>751.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>124.0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>666.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>654.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>716.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>122.0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>615.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>122.0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>708.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>121.0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>745.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>117.0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>795.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>5.1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>117.0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>859.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>115.0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>729.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>4.9</v>
+      </c>
+      <c r="E28" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>670.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E29" s="4">
+        <v>111.0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>613.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="E30" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>616.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E31" s="4">
+        <v>110.0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>638.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>4.4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>581.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
+    <hyperlink r:id="rId17" ref="B18"/>
+    <hyperlink r:id="rId18" ref="B19"/>
+    <hyperlink r:id="rId19" ref="B20"/>
+    <hyperlink r:id="rId20" ref="B21"/>
+    <hyperlink r:id="rId21" ref="B22"/>
+    <hyperlink r:id="rId22" ref="B23"/>
+    <hyperlink r:id="rId23" ref="B24"/>
+    <hyperlink r:id="rId24" ref="B25"/>
+    <hyperlink r:id="rId25" ref="B26"/>
+    <hyperlink r:id="rId26" ref="B27"/>
+    <hyperlink r:id="rId27" ref="B28"/>
+    <hyperlink r:id="rId28" ref="B29"/>
+    <hyperlink r:id="rId29" ref="B30"/>
+    <hyperlink r:id="rId30" ref="B31"/>
+    <hyperlink r:id="rId31" ref="B32"/>
+  </hyperlinks>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
 
